--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>178.678107559392</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H2">
-        <v>178.678107559392</v>
+        <v>614.857391</v>
       </c>
       <c r="I2">
-        <v>0.9856884073021677</v>
+        <v>0.9721146820600982</v>
       </c>
       <c r="J2">
-        <v>0.9856884073021677</v>
+        <v>0.9773424603215415</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N2">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O2">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P2">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q2">
-        <v>4504.412204404852</v>
+        <v>5254.051913943069</v>
       </c>
       <c r="R2">
-        <v>4504.412204404852</v>
+        <v>31524.31148365841</v>
       </c>
       <c r="S2">
-        <v>0.04693606176089726</v>
+        <v>0.04575679538636188</v>
       </c>
       <c r="T2">
-        <v>0.04693606176089726</v>
+        <v>0.03189826277292616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>178.678107559392</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H3">
-        <v>178.678107559392</v>
+        <v>614.857391</v>
       </c>
       <c r="I3">
-        <v>0.9856884073021677</v>
+        <v>0.9721146820600982</v>
       </c>
       <c r="J3">
-        <v>0.9856884073021677</v>
+        <v>0.9773424603215415</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N3">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O3">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P3">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q3">
-        <v>33948.0017008313</v>
+        <v>39997.76264049893</v>
       </c>
       <c r="R3">
-        <v>33948.0017008313</v>
+        <v>359979.8637644904</v>
       </c>
       <c r="S3">
-        <v>0.3537388303253188</v>
+        <v>0.348334860604769</v>
       </c>
       <c r="T3">
-        <v>0.3537388303253188</v>
+        <v>0.3642500580313799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>178.678107559392</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H4">
-        <v>178.678107559392</v>
+        <v>614.857391</v>
       </c>
       <c r="I4">
-        <v>0.9856884073021677</v>
+        <v>0.9721146820600982</v>
       </c>
       <c r="J4">
-        <v>0.9856884073021677</v>
+        <v>0.9773424603215415</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N4">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O4">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P4">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q4">
-        <v>46753.86628142282</v>
+        <v>53847.68743865747</v>
       </c>
       <c r="R4">
-        <v>46753.86628142282</v>
+        <v>484629.1869479172</v>
       </c>
       <c r="S4">
-        <v>0.4871761854298446</v>
+        <v>0.46895189779545</v>
       </c>
       <c r="T4">
-        <v>0.4871761854298446</v>
+        <v>0.4903780106571962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>178.678107559392</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H5">
-        <v>178.678107559392</v>
+        <v>614.857391</v>
       </c>
       <c r="I5">
-        <v>0.9856884073021677</v>
+        <v>0.9721146820600982</v>
       </c>
       <c r="J5">
-        <v>0.9856884073021677</v>
+        <v>0.9773424603215415</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N5">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O5">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P5">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q5">
-        <v>4122.078721743104</v>
+        <v>4868.838702987466</v>
       </c>
       <c r="R5">
-        <v>4122.078721743104</v>
+        <v>43819.54832688719</v>
       </c>
       <c r="S5">
-        <v>0.04295213952173759</v>
+        <v>0.04240202798731064</v>
       </c>
       <c r="T5">
-        <v>0.04295213952173759</v>
+        <v>0.04433934957934162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.678107559392</v>
+        <v>204.9524636666667</v>
       </c>
       <c r="H6">
-        <v>178.678107559392</v>
+        <v>614.857391</v>
       </c>
       <c r="I6">
-        <v>0.9856884073021677</v>
+        <v>0.9721146820600982</v>
       </c>
       <c r="J6">
-        <v>0.9856884073021677</v>
+        <v>0.9773424603215415</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N6">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O6">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P6">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q6">
-        <v>5267.283014227525</v>
+        <v>7655.320067803742</v>
       </c>
       <c r="R6">
-        <v>5267.283014227525</v>
+        <v>45931.92040682246</v>
       </c>
       <c r="S6">
-        <v>0.05488519026436946</v>
+        <v>0.06666910028620653</v>
       </c>
       <c r="T6">
-        <v>0.05488519026436946</v>
+        <v>0.04647677928069757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.442516208716041</v>
+        <v>0.5370376666666666</v>
       </c>
       <c r="H7">
-        <v>0.442516208716041</v>
+        <v>1.611113</v>
       </c>
       <c r="I7">
-        <v>0.002441166984207745</v>
+        <v>0.002547235545482596</v>
       </c>
       <c r="J7">
-        <v>0.002441166984207745</v>
+        <v>0.002560933911382419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N7">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O7">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P7">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q7">
-        <v>11.15567787466599</v>
+        <v>13.76721084455267</v>
       </c>
       <c r="R7">
-        <v>11.15567787466599</v>
+        <v>82.60326506731599</v>
       </c>
       <c r="S7">
-        <v>0.0001162423779062599</v>
+        <v>0.0001198966930614772</v>
       </c>
       <c r="T7">
-        <v>0.0001162423779062599</v>
+        <v>8.358313095544682E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.442516208716041</v>
+        <v>0.5370376666666666</v>
       </c>
       <c r="H8">
-        <v>0.442516208716041</v>
+        <v>1.611113</v>
       </c>
       <c r="I8">
-        <v>0.002441166984207745</v>
+        <v>0.002547235545482596</v>
       </c>
       <c r="J8">
-        <v>0.002441166984207745</v>
+        <v>0.002560933911382419</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N8">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O8">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P8">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q8">
-        <v>84.07600243440085</v>
+        <v>104.806279153961</v>
       </c>
       <c r="R8">
-        <v>84.07600243440085</v>
+        <v>943.2565123856489</v>
       </c>
       <c r="S8">
-        <v>0.0008760735616095286</v>
+        <v>0.0009127430693494441</v>
       </c>
       <c r="T8">
-        <v>0.0008760735616095286</v>
+        <v>0.0009544457175519427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.442516208716041</v>
+        <v>0.5370376666666666</v>
       </c>
       <c r="H9">
-        <v>0.442516208716041</v>
+        <v>1.611113</v>
       </c>
       <c r="I9">
-        <v>0.002441166984207745</v>
+        <v>0.002547235545482596</v>
       </c>
       <c r="J9">
-        <v>0.002441166984207745</v>
+        <v>0.002560933911382419</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N9">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O9">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P9">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q9">
-        <v>115.7911505347397</v>
+        <v>141.0972861711241</v>
       </c>
       <c r="R9">
-        <v>115.7911505347397</v>
+        <v>1269.875575540117</v>
       </c>
       <c r="S9">
-        <v>0.001206546014494241</v>
+        <v>0.001228796319231236</v>
       </c>
       <c r="T9">
-        <v>0.001206546014494241</v>
+        <v>0.001284939238672903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.442516208716041</v>
+        <v>0.5370376666666666</v>
       </c>
       <c r="H10">
-        <v>0.442516208716041</v>
+        <v>1.611113</v>
       </c>
       <c r="I10">
-        <v>0.002441166984207745</v>
+        <v>0.002547235545482596</v>
       </c>
       <c r="J10">
-        <v>0.002441166984207745</v>
+        <v>0.002560933911382419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N10">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O10">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P10">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q10">
-        <v>10.2087864758054</v>
+        <v>12.75783530312356</v>
       </c>
       <c r="R10">
-        <v>10.2087864758054</v>
+        <v>114.820517728112</v>
       </c>
       <c r="S10">
-        <v>0.0001063757513274752</v>
+        <v>0.0001111061841602226</v>
       </c>
       <c r="T10">
-        <v>0.0001063757513274752</v>
+        <v>0.0001161825547915091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.442516208716041</v>
+        <v>0.5370376666666666</v>
       </c>
       <c r="H11">
-        <v>0.442516208716041</v>
+        <v>1.611113</v>
       </c>
       <c r="I11">
-        <v>0.002441166984207745</v>
+        <v>0.002547235545482596</v>
       </c>
       <c r="J11">
-        <v>0.002441166984207745</v>
+        <v>0.002560933911382419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N11">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O11">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P11">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q11">
-        <v>13.04501229349318</v>
+        <v>20.059262295506</v>
       </c>
       <c r="R11">
-        <v>13.04501229349318</v>
+        <v>120.355573773036</v>
       </c>
       <c r="S11">
-        <v>0.00013592927887024</v>
+        <v>0.0001746932796802162</v>
       </c>
       <c r="T11">
-        <v>0.00013592927887024</v>
+        <v>0.0001217832694106177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.852393140066243</v>
+        <v>0.9139249999999999</v>
       </c>
       <c r="H12">
-        <v>0.852393140066243</v>
+        <v>2.741775</v>
       </c>
       <c r="I12">
-        <v>0.00470227745359297</v>
+        <v>0.004334858410127374</v>
       </c>
       <c r="J12">
-        <v>0.00470227745359297</v>
+        <v>0.004358170143795334</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N12">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O12">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P12">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q12">
-        <v>21.48853105458996</v>
+        <v>23.42889326405</v>
       </c>
       <c r="R12">
-        <v>21.48853105458996</v>
+        <v>140.5733595843</v>
       </c>
       <c r="S12">
-        <v>0.0002239109066756587</v>
+        <v>0.0002040389194417967</v>
       </c>
       <c r="T12">
-        <v>0.0002239109066756587</v>
+        <v>0.0001422408849505716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.852393140066243</v>
+        <v>0.9139249999999999</v>
       </c>
       <c r="H13">
-        <v>0.852393140066243</v>
+        <v>2.741775</v>
       </c>
       <c r="I13">
-        <v>0.00470227745359297</v>
+        <v>0.004334858410127374</v>
       </c>
       <c r="J13">
-        <v>0.00470227745359297</v>
+        <v>0.004358170143795334</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N13">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O13">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P13">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q13">
-        <v>161.9506953817897</v>
+        <v>178.358213252175</v>
       </c>
       <c r="R13">
-        <v>161.9506953817897</v>
+        <v>1605.223919269575</v>
       </c>
       <c r="S13">
-        <v>0.001687529359152926</v>
+        <v>0.001553296465837947</v>
       </c>
       <c r="T13">
-        <v>0.001687529359152926</v>
+        <v>0.001624265589838191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.852393140066243</v>
+        <v>0.9139249999999999</v>
       </c>
       <c r="H14">
-        <v>0.852393140066243</v>
+        <v>2.741775</v>
       </c>
       <c r="I14">
-        <v>0.00470227745359297</v>
+        <v>0.004334858410127374</v>
       </c>
       <c r="J14">
-        <v>0.00470227745359297</v>
+        <v>0.004358170143795334</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N14">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O14">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P14">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q14">
-        <v>223.0417337312146</v>
+        <v>240.1178637326083</v>
       </c>
       <c r="R14">
-        <v>223.0417337312146</v>
+        <v>2161.060773593475</v>
       </c>
       <c r="S14">
-        <v>0.002324099153143351</v>
+        <v>0.002091152531299929</v>
       </c>
       <c r="T14">
-        <v>0.002324099153143351</v>
+        <v>0.002186695955598643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.852393140066243</v>
+        <v>0.9139249999999999</v>
       </c>
       <c r="H15">
-        <v>0.852393140066243</v>
+        <v>2.741775</v>
       </c>
       <c r="I15">
-        <v>0.00470227745359297</v>
+        <v>0.004334858410127374</v>
       </c>
       <c r="J15">
-        <v>0.00470227745359297</v>
+        <v>0.004358170143795334</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N15">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O15">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P15">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q15">
-        <v>19.66458942967554</v>
+        <v>21.71114868306667</v>
       </c>
       <c r="R15">
-        <v>19.66458942967554</v>
+        <v>195.4003381476</v>
       </c>
       <c r="S15">
-        <v>0.0002049053998813343</v>
+        <v>0.0001890793247127261</v>
       </c>
       <c r="T15">
-        <v>0.0002049053998813343</v>
+        <v>0.0001977182383628521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.852393140066243</v>
+        <v>0.9139249999999999</v>
       </c>
       <c r="H16">
-        <v>0.852393140066243</v>
+        <v>2.741775</v>
       </c>
       <c r="I16">
-        <v>0.00470227745359297</v>
+        <v>0.004334858410127374</v>
       </c>
       <c r="J16">
-        <v>0.00470227745359297</v>
+        <v>0.004358170143795334</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N16">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O16">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P16">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q16">
-        <v>25.12784565183842</v>
+        <v>34.13663962755</v>
       </c>
       <c r="R16">
-        <v>25.12784565183842</v>
+        <v>204.8198377653</v>
       </c>
       <c r="S16">
-        <v>0.0002618326347396998</v>
+        <v>0.000297291168834976</v>
       </c>
       <c r="T16">
-        <v>0.0002618326347396998</v>
+        <v>0.0002072494750450752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.2993874700354</v>
+        <v>1.044945666666667</v>
       </c>
       <c r="H17">
-        <v>1.2993874700354</v>
+        <v>3.134837</v>
       </c>
       <c r="I17">
-        <v>0.007168148260031554</v>
+        <v>0.004956305507865697</v>
       </c>
       <c r="J17">
-        <v>0.007168148260031554</v>
+        <v>0.004982959221331048</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N17">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O17">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P17">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q17">
-        <v>32.75710078993695</v>
+        <v>26.78766910968067</v>
       </c>
       <c r="R17">
-        <v>32.75710078993695</v>
+        <v>160.726014658084</v>
       </c>
       <c r="S17">
-        <v>0.0003413296199404022</v>
+        <v>0.0002332900234724454</v>
       </c>
       <c r="T17">
-        <v>0.0003413296199404022</v>
+        <v>0.0001626325971517703</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.2993874700354</v>
+        <v>1.044945666666667</v>
       </c>
       <c r="H18">
-        <v>1.2993874700354</v>
+        <v>3.134837</v>
       </c>
       <c r="I18">
-        <v>0.007168148260031554</v>
+        <v>0.004956305507865697</v>
       </c>
       <c r="J18">
-        <v>0.007168148260031554</v>
+        <v>0.004982959221331048</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N18">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O18">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P18">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q18">
-        <v>246.8775198334697</v>
+        <v>203.927720603189</v>
       </c>
       <c r="R18">
-        <v>246.8775198334697</v>
+        <v>1835.349485428701</v>
       </c>
       <c r="S18">
-        <v>0.002572468502538363</v>
+        <v>0.001775977690758006</v>
       </c>
       <c r="T18">
-        <v>0.002572468502538363</v>
+        <v>0.001857120977779572</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.2993874700354</v>
+        <v>1.044945666666667</v>
       </c>
       <c r="H19">
-        <v>1.2993874700354</v>
+        <v>3.134837</v>
       </c>
       <c r="I19">
-        <v>0.007168148260031554</v>
+        <v>0.004956305507865697</v>
       </c>
       <c r="J19">
-        <v>0.007168148260031554</v>
+        <v>0.004982959221331048</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N19">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O19">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P19">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q19">
-        <v>340.0046533490278</v>
+        <v>274.5412601653815</v>
       </c>
       <c r="R19">
-        <v>340.0046533490278</v>
+        <v>2470.871341488433</v>
       </c>
       <c r="S19">
-        <v>0.003542855024008834</v>
+        <v>0.002390941024614593</v>
       </c>
       <c r="T19">
-        <v>0.003542855024008834</v>
+        <v>0.002500181593807291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.2993874700354</v>
+        <v>1.044945666666667</v>
       </c>
       <c r="H20">
-        <v>1.2993874700354</v>
+        <v>3.134837</v>
       </c>
       <c r="I20">
-        <v>0.007168148260031554</v>
+        <v>0.004956305507865697</v>
       </c>
       <c r="J20">
-        <v>0.007168148260031554</v>
+        <v>0.004982959221331048</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N20">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O20">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P20">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q20">
-        <v>29.97668553072263</v>
+        <v>24.82366795385423</v>
       </c>
       <c r="R20">
-        <v>29.97668553072263</v>
+        <v>223.413011584688</v>
       </c>
       <c r="S20">
-        <v>0.0003123576394898103</v>
+        <v>0.0002161858150448043</v>
       </c>
       <c r="T20">
-        <v>0.0003123576394898103</v>
+        <v>0.0002260632069351746</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.044945666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.134837</v>
+      </c>
+      <c r="I21">
+        <v>0.004956305507865697</v>
+      </c>
+      <c r="J21">
+        <v>0.004982959221331048</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.351686</v>
+      </c>
+      <c r="N21">
+        <v>74.703372</v>
+      </c>
+      <c r="O21">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P21">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q21">
+        <v>39.030482428394</v>
+      </c>
+      <c r="R21">
+        <v>234.182894570364</v>
+      </c>
+      <c r="S21">
+        <v>0.0003399109539758477</v>
+      </c>
+      <c r="T21">
+        <v>0.0002369608456572398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.383197</v>
+      </c>
+      <c r="H22">
+        <v>6.766394</v>
+      </c>
+      <c r="I22">
+        <v>0.01604691847642608</v>
+      </c>
+      <c r="J22">
+        <v>0.01075547640194979</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>25.635466</v>
+      </c>
+      <c r="N22">
+        <v>51.270932</v>
+      </c>
+      <c r="O22">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P22">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q22">
+        <v>86.72983166480201</v>
+      </c>
+      <c r="R22">
+        <v>346.919326659208</v>
+      </c>
+      <c r="S22">
+        <v>0.0007553178435196854</v>
+      </c>
+      <c r="T22">
+        <v>0.0003510345927307083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.383197</v>
+      </c>
+      <c r="H23">
+        <v>6.766394</v>
+      </c>
+      <c r="I23">
+        <v>0.01604691847642608</v>
+      </c>
+      <c r="J23">
+        <v>0.01075547640194979</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>195.156291</v>
+      </c>
+      <c r="N23">
+        <v>585.468873</v>
+      </c>
+      <c r="O23">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P23">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q23">
+        <v>660.2521782423271</v>
+      </c>
+      <c r="R23">
+        <v>3961.513069453962</v>
+      </c>
+      <c r="S23">
+        <v>0.00575004288462789</v>
+      </c>
+      <c r="T23">
+        <v>0.004008505782380975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.383197</v>
+      </c>
+      <c r="H24">
+        <v>6.766394</v>
+      </c>
+      <c r="I24">
+        <v>0.01604691847642608</v>
+      </c>
+      <c r="J24">
+        <v>0.01075547640194979</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N24">
+        <v>788.197709</v>
+      </c>
+      <c r="O24">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P24">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q24">
+        <v>888.8760414985577</v>
+      </c>
+      <c r="R24">
+        <v>5333.256248991346</v>
+      </c>
+      <c r="S24">
+        <v>0.007741095790613372</v>
+      </c>
+      <c r="T24">
+        <v>0.005396521010581441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.2993874700354</v>
-      </c>
-      <c r="H21">
-        <v>1.2993874700354</v>
-      </c>
-      <c r="I21">
-        <v>0.007168148260031554</v>
-      </c>
-      <c r="J21">
-        <v>0.007168148260031554</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>29.479173952392</v>
-      </c>
-      <c r="N21">
-        <v>29.479173952392</v>
-      </c>
-      <c r="O21">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="P21">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="Q21">
-        <v>38.3048692607321</v>
-      </c>
-      <c r="R21">
-        <v>38.3048692607321</v>
-      </c>
-      <c r="S21">
-        <v>0.0003991374740541453</v>
-      </c>
-      <c r="T21">
-        <v>0.0003991374740541453</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.383197</v>
+      </c>
+      <c r="H25">
+        <v>6.766394</v>
+      </c>
+      <c r="I25">
+        <v>0.01604691847642608</v>
+      </c>
+      <c r="J25">
+        <v>0.01075547640194979</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N25">
+        <v>71.267824</v>
+      </c>
+      <c r="O25">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P25">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q25">
+        <v>80.37102945110934</v>
+      </c>
+      <c r="R25">
+        <v>482.226176706656</v>
+      </c>
+      <c r="S25">
+        <v>0.0006999399339443838</v>
+      </c>
+      <c r="T25">
+        <v>0.0004879464951533122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.383197</v>
+      </c>
+      <c r="H26">
+        <v>6.766394</v>
+      </c>
+      <c r="I26">
+        <v>0.01604691847642608</v>
+      </c>
+      <c r="J26">
+        <v>0.01075547640194979</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>37.351686</v>
+      </c>
+      <c r="N26">
+        <v>74.703372</v>
+      </c>
+      <c r="O26">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P26">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q26">
+        <v>126.368112020142</v>
+      </c>
+      <c r="R26">
+        <v>505.472448080568</v>
+      </c>
+      <c r="S26">
+        <v>0.001100522023720748</v>
+      </c>
+      <c r="T26">
+        <v>0.0005114685211033535</v>
       </c>
     </row>
   </sheetData>
